--- a/氣象性能評估工具V2/data/obs/2016-06-04_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-04_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="215">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.9</t>
+  </si>
+  <si>
     <t>2016-06-04-00</t>
   </si>
   <si>
-    <t>22.9</t>
-  </si>
-  <si>
     <t>28.1</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>26.9</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-04-01</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>27.3</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>27.7</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-04-02</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>24.1</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>26.1</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-04-03</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>28.8</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>29.8</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-04-04</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>27.8</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>5.9</t>
   </si>
   <si>
+    <t>23.5</t>
+  </si>
+  <si>
     <t>2016-06-04-06</t>
   </si>
   <si>
-    <t>23.5</t>
-  </si>
-  <si>
     <t>29.4</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>30.4</t>
   </si>
   <si>
+    <t>24.8</t>
+  </si>
+  <si>
     <t>2016-06-04-07</t>
   </si>
   <si>
-    <t>24.8</t>
-  </si>
-  <si>
     <t>30.5</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>32.0</t>
   </si>
   <si>
+    <t>25.3</t>
+  </si>
+  <si>
     <t>2016-06-04-09</t>
   </si>
   <si>
-    <t>25.3</t>
-  </si>
-  <si>
     <t>34.5</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>34.1</t>
   </si>
   <si>
+    <t>26.3</t>
+  </si>
+  <si>
     <t>2016-06-04-10</t>
   </si>
   <si>
-    <t>26.3</t>
-  </si>
-  <si>
     <t>32.8</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>37.3</t>
   </si>
   <si>
+    <t>25.9</t>
+  </si>
+  <si>
     <t>2016-06-04-12</t>
   </si>
   <si>
-    <t>25.9</t>
-  </si>
-  <si>
     <t>35.4</t>
   </si>
   <si>
@@ -538,12 +538,12 @@
     <t>33.3</t>
   </si>
   <si>
+    <t>26.0</t>
+  </si>
+  <si>
     <t>2016-06-04-14</t>
   </si>
   <si>
-    <t>26.0</t>
-  </si>
-  <si>
     <t>36.1</t>
   </si>
   <si>
@@ -571,12 +571,12 @@
     <t>29.9</t>
   </si>
   <si>
+    <t>25.0</t>
+  </si>
+  <si>
     <t>2016-06-04-16</t>
   </si>
   <si>
-    <t>25.0</t>
-  </si>
-  <si>
     <t>27.0</t>
   </si>
   <si>
@@ -592,42 +592,42 @@
     <t>31.8</t>
   </si>
   <si>
+    <t>24.5</t>
+  </si>
+  <si>
     <t>2016-06-04-17</t>
   </si>
   <si>
-    <t>24.5</t>
-  </si>
-  <si>
     <t>15.5</t>
   </si>
   <si>
+    <t>23.7</t>
+  </si>
+  <si>
     <t>2016-06-04-18</t>
   </si>
   <si>
-    <t>23.7</t>
-  </si>
-  <si>
     <t>6.3</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-04-19</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>24.7</t>
   </si>
   <si>
     <t>5.4</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
     <t>2016-06-04-20</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>24.9</t>
   </si>
   <si>
@@ -652,10 +652,10 @@
     <t>13.3</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-04-23</t>
-  </si>
-  <si>
-    <t>23.1</t>
   </si>
   <si>
     <t>13.5</t>
@@ -665,6 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -694,8 +697,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,11 +1078,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1151,11 +1155,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -1228,11 +1232,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -1305,11 +1309,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -1382,11 +1386,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -1459,11 +1463,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1536,11 +1540,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -1579,7 +1583,7 @@
         <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
         <v>96</v>
@@ -1613,11 +1617,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -1690,7 +1694,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B10" t="s">
@@ -1767,11 +1771,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -1844,11 +1848,11 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
         <v>136</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>138</v>
@@ -1921,7 +1925,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B13" t="s">
@@ -1998,11 +2002,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>115</v>
@@ -2075,7 +2079,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B15" t="s">
@@ -2152,11 +2156,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
         <v>174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>151</v>
@@ -2229,11 +2233,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
@@ -2306,11 +2310,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" t="s">
         <v>185</v>
-      </c>
-      <c r="B18" t="s">
-        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>119</v>
@@ -2383,11 +2387,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
         <v>192</v>
-      </c>
-      <c r="B19" t="s">
-        <v>193</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -2426,7 +2430,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s">
         <v>194</v>
@@ -2460,11 +2464,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
         <v>195</v>
-      </c>
-      <c r="B20" t="s">
-        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2503,7 +2507,7 @@
         <v>97</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
         <v>145</v>
@@ -2537,11 +2541,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
         <v>198</v>
-      </c>
-      <c r="B21" t="s">
-        <v>199</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2580,7 +2584,7 @@
         <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
         <v>66</v>
@@ -2614,11 +2618,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
         <v>202</v>
-      </c>
-      <c r="B22" t="s">
-        <v>203</v>
       </c>
       <c r="C22" t="s">
         <v>71</v>
@@ -2691,17 +2695,17 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
         <v>99</v>
@@ -2768,17 +2772,17 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>108</v>
@@ -2811,7 +2815,7 @@
         <v>39</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P24" t="s">
         <v>211</v>
@@ -2845,11 +2849,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s">
         <v>212</v>
-      </c>
-      <c r="B25" t="s">
-        <v>213</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
